--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiengtb/Dropbox/DEVELOPPEMENT/Programmation/01. Développeur Web/Projets OC/Projet 4/Documents fournis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiengtb/Dropbox/DEVELOPPEMENT/Programmation/01. Développeur Web/Projets OC/Projet 4/damienwill_4_07062021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1736B72-D42D-3842-9AD8-ED02F0C55E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0824A-E3A7-0A4C-A908-498C2B0D680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-9140" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-83460" yWindow="-13160" windowWidth="41440" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page accueil" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="213">
   <si>
     <t>Catégorie</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Paramétrer le cache pour le navigateur</t>
   </si>
   <si>
-    <t>Paramétrer l'attribut lang avec la version fr.</t>
-  </si>
-  <si>
     <t>Définir la balise avec les mots clés recommandés dans le briefing</t>
   </si>
   <si>
@@ -545,11 +542,6 @@
     <t>Directives générales</t>
   </si>
   <si>
-    <t>Le contraste des couleurs DOIT être conforme aux exigences du niveau AA du WCAG 2.1 :
-    Un contraste dont le ratio est de 4.5:1 pour les textes normaux (dont la fonte est inférieure à 18 points ou 14 points en gras) ;
-    Un contraste dont le ratio est de 3:1 pour les grands textes (18 points minimum ou 14 points en gras).</t>
-  </si>
-  <si>
     <t>L'information transmise par la couleur DOIT également être disponible par d'autres moyens (texte souligné pour les liens, etc.).</t>
   </si>
   <si>
@@ -575,9 +567,6 @@
   </si>
   <si>
     <t>Les images de texte DOIVENT être évitées.</t>
-  </si>
-  <si>
-    <t>Tous les composants de l'interface utilisateur ayant un texte visible (ou une image de texte) comme étiquette DOIVENT avoir le même texte disponible dans le nom programmatique du composant. WCAG 2.1 : Étiquette dans le nom.</t>
   </si>
   <si>
     <t>Tous les contrôles de formulaire DOIVENT avoir des étiquettes (éléments &lt;label&gt;) pour le bénéfice des utilisateurs de lecteurs d'écran.</t>
@@ -621,12 +610,143 @@
   <si>
     <t>https://developer.mozilla.org/</t>
   </si>
+  <si>
+    <t>Le contraste des couleurs DOIT être conforme aux exigences du niveau AA du WCAG 2.1 :
+    Un contraste dont le ratio est de 4.5:1 pour les textes normaux (dont la font est inférieure à 18 points ou 14 points en gras) ;
+    Un contraste dont le ratio est de 3:1 pour les grands textes (18 points minimum ou 14 points en gras).</t>
+  </si>
+  <si>
+    <t>L'attribut "lang" dans le Html doit être renseigné correctement</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>Pas de valeur définie pour les 2 pages</t>
+  </si>
+  <si>
+    <t>Les icônes des réseaux sociaux dans le footer n'ont pas de texte de lien unique et discernable</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+Lighthouse</t>
+  </si>
+  <si>
+    <t>Tous les composants de l'interface utilisateur ayant un texte visible (ou une image de texte) comme étiquette (label) DOIVENT avoir le même texte disponible dans le nom programmatique du composant. WCAG 2.1 : Étiquette dans le nom.</t>
+  </si>
+  <si>
+    <t>Des parties de pages comporte un ratio de contraste texte/fond insuffisant</t>
+  </si>
+  <si>
+    <t>Un taux de contraste insuffisant va rendre difficile la lecture pour les personnes mal voyantes.</t>
+  </si>
+  <si>
+    <t>Les éléments interactifs ou cliquables doivent avoir un contenu textuel visible par les lecteurs d'écran</t>
+  </si>
+  <si>
+    <t>Des liens en page 2 n'ont pas de contenu textuel visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le logiciel de lecteur d'écran ne pourra pas restituer à l'utilisateur le contenu et l'intérêt des liens incriminés. </t>
+  </si>
+  <si>
+    <t>Axe Devtools</t>
+  </si>
+  <si>
+    <t>Cela ne facilite pas la compréhension de la page par le lecteur d'ècran et les technologies d'assistance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page d'accueil, la hierarchie des titres n'est pas correcte. </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+Axe Devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il existe des images texte en page accueil sans description adaptée. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu ne pourra pas etre lu par un lecteur d'écran ou une technologie d'assistance. L'utilisateur va passer à coté des informations du site. </t>
+  </si>
+  <si>
+    <t>Des contenus textuels sont lus dans un accent anglais, ce qui rend la compréhension difficile</t>
+  </si>
+  <si>
+    <t>Le formulaire page 2 n'a pas de labels associés. De plus, lors de la lecture d'écran par Voice over, les indications pour chaque inoput sont identiques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le remplissage du formulaire par l'utilisateur utilisant une technologie d'assistance risque d'être géné par une mauvaise compréhension des éléments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La structure du code html doit utiliser au maximum les balises sémantiques et être cohérente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de balise main pour les 2 pages. 
+Un bouton "Toggle navigation" semble errer sans but en haut de la page 2. </t>
+  </si>
+  <si>
+    <t>La navigation en page 2 est à moitié hors écran.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela ne favorise pas la visibilité de la page et la navigation pour les personnes mal voyantes. </t>
+  </si>
+  <si>
+    <t>Des éléments textuels ne sont pas lus par le lecteur d'écran (voice over). Web design, Stratégie, Illustrations + paragraphes associés. 
+Titres et paragraphes des images en page d'accueil. 
+Paragraphes du bouton envoyer en page 2.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens du footer en page d'accueil n'ont aucune indication de couleur ou autre (à part le pointer de la souris mais les liens sont trop rapporchés entre eux pour que ce pointer soit efficace). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela risque de rendre difficile la navigation des personnes mal voyantes. </t>
+  </si>
+  <si>
+    <t>Les éléments  dans le footer sont invisibles en page 2</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+Ligthouse
+Wave</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Axe devtools
+Wave</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+WCAG - Contrast checker
+Lighthouse
+Wave</t>
+  </si>
+  <si>
+    <t>Version Mobile</t>
+  </si>
+  <si>
+    <t>Lighthouse (version mobile)</t>
+  </si>
+  <si>
+    <t>Rien de plus que la version desktop</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Paramétrer l'attribut " lang" du html avec la version fr.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,21 +757,25 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -768,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -798,12 +922,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -889,21 +1050,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -928,21 +1077,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -963,9 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -996,6 +1127,87 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1213,14 +1425,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1015"/>
+  <dimension ref="A1:AB1019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" style="1" customWidth="1"/>
@@ -1230,12 +1442,12 @@
     <col min="6" max="6" width="48.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="67" customWidth="1"/>
-    <col min="10" max="28" width="10.5703125" style="61" customWidth="1"/>
-    <col min="29" max="16384" width="11.28515625" style="61"/>
+    <col min="9" max="9" width="17.42578125" style="57" customWidth="1"/>
+    <col min="10" max="28" width="10.5703125" style="51" customWidth="1"/>
+    <col min="29" max="16384" width="11.28515625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1263,27 +1475,27 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-    </row>
-    <row r="2" spans="1:28" s="63" customFormat="1" ht="36" customHeight="1">
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+    </row>
+    <row r="2" spans="1:28" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1295,27 +1507,27 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-    </row>
-    <row r="3" spans="1:28" s="65" customFormat="1" ht="36" customHeight="1">
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+    </row>
+    <row r="3" spans="1:28" s="55" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
         <v>46</v>
@@ -1327,27 +1539,27 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-    </row>
-    <row r="4" spans="1:28" s="66" customFormat="1" ht="128" customHeight="1">
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+    </row>
+    <row r="4" spans="1:28" s="56" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -1368,11 +1580,9 @@
       <c r="H4" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" s="66" customFormat="1" ht="113" customHeight="1">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:28" s="56" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
@@ -1395,7 +1605,7 @@
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:28" s="66" customFormat="1" ht="54" customHeight="1">
+    <row r="6" spans="1:28" s="56" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
@@ -1420,7 +1630,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="66" customFormat="1" ht="117" customHeight="1">
+    <row r="7" spans="1:28" s="56" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
@@ -1443,7 +1653,7 @@
       </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:28" s="66" customFormat="1" ht="72" customHeight="1">
+    <row r="8" spans="1:28" s="56" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
@@ -1468,7 +1678,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="66" customFormat="1" ht="88" customHeight="1">
+    <row r="9" spans="1:28" s="56" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="24" t="s">
         <v>36</v>
@@ -1485,113 +1695,115 @@
       <c r="H9" s="26"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:28" s="66" customFormat="1" ht="64" customHeight="1">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:28" s="56" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="F10" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="76" t="s">
         <v>107</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:28" s="66" customFormat="1" ht="41" customHeight="1">
-      <c r="A11" s="31"/>
+      <c r="I10" s="64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="56" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="77"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:28" s="66" customFormat="1" ht="40" customHeight="1">
-      <c r="A12" s="31"/>
+    <row r="12" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:28" s="66" customFormat="1" ht="40" customHeight="1">
+    <row r="13" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="23" t="s">
         <v>102</v>
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:28" s="66" customFormat="1" ht="84" customHeight="1">
+    <row r="14" spans="1:28" s="56" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="66" customFormat="1" ht="29" customHeight="1">
+    <row r="15" spans="1:28" s="56" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="23" t="s">
         <v>111</v>
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:28" s="66" customFormat="1" ht="40" customHeight="1">
+    <row r="16" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="23" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="22"/>
     </row>
-    <row r="17" spans="1:9" s="66" customFormat="1" ht="48" customHeight="1">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:9" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="76"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="75" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1603,20 +1815,18 @@
       <c r="F17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="84" t="s">
         <v>107</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="66" customFormat="1" ht="48" customHeight="1">
-      <c r="A18" s="31"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="77"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="29"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
@@ -1626,45 +1836,45 @@
       <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9" s="66" customFormat="1" ht="63" customHeight="1">
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" s="56" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="28"/>
+      <c r="G19" s="76"/>
       <c r="H19" s="23" t="s">
         <v>119</v>
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" s="66" customFormat="1" ht="58" customHeight="1">
+    <row r="20" spans="1:9" s="56" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="28"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="21" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" s="66" customFormat="1" ht="80" customHeight="1">
+    <row r="21" spans="1:9" s="56" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
@@ -1685,182 +1895,184 @@
       <c r="H21" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I21" s="34"/>
-    </row>
-    <row r="22" spans="1:9" s="66" customFormat="1" ht="31" customHeight="1">
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" s="56" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" s="68" customFormat="1" ht="74" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" s="58" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D23" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G23" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" s="68" customFormat="1" ht="60" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
+      <c r="H23" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="58" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="37" t="s">
         <v>84</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="41" t="s">
+      <c r="G24" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="68" customFormat="1" ht="31" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="29" t="s">
+    <row r="25" spans="1:9" s="58" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="42" t="s">
+      <c r="D25" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="I25" s="45" t="s">
+      <c r="H25" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="79" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="68" customFormat="1" ht="69" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="39" t="s">
+    <row r="26" spans="1:9" s="58" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="42"/>
-    </row>
-    <row r="27" spans="1:9" s="68" customFormat="1" ht="86" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="39" t="s">
+      <c r="G26" s="83"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:9" s="58" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="42"/>
-    </row>
-    <row r="28" spans="1:9" s="68" customFormat="1" ht="86" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="39" t="s">
+      <c r="G27" s="83"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="80"/>
+    </row>
+    <row r="28" spans="1:9" s="58" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="42"/>
-    </row>
-    <row r="29" spans="1:9" s="68" customFormat="1" ht="88" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="80"/>
+    </row>
+    <row r="29" spans="1:9" s="58" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="G29" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" s="34"/>
-    </row>
-    <row r="30" spans="1:9" s="68" customFormat="1" ht="61" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="I29" s="30"/>
+    </row>
+    <row r="30" spans="1:9" s="58" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="39" t="s">
-        <v>134</v>
+      <c r="G30" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I30" s="40"/>
-    </row>
-    <row r="31" spans="1:9" s="68" customFormat="1" ht="95" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="39"/>
+        <v>132</v>
+      </c>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" s="58" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="20" t="s">
         <v>73</v>
       </c>
@@ -1877,46 +2089,46 @@
         <v>101</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="66" customFormat="1" ht="150" customHeight="1">
+    <row r="32" spans="1:9" s="56" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="34" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="66" customFormat="1" ht="43" customHeight="1">
+    <row r="33" spans="1:9" s="56" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="39" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>130</v>
       </c>
       <c r="F33" s="14" t="s">
         <v>57</v>
@@ -1925,14 +2137,14 @@
         <v>16</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I33" s="49"/>
-    </row>
-    <row r="34" spans="1:9" s="66" customFormat="1" ht="49" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="1:9" s="56" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="39" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -1948,21 +2160,21 @@
         <v>75</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="50"/>
-    </row>
-    <row r="35" spans="1:9" s="66" customFormat="1" ht="67" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9" s="56" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="48" t="s">
+      <c r="C35" s="39" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>139</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>54</v>
@@ -1971,37 +2183,37 @@
         <v>16</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I35" s="34"/>
-    </row>
-    <row r="36" spans="1:9" s="66" customFormat="1" ht="71" customHeight="1">
+        <v>139</v>
+      </c>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:9" s="56" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="E36" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F36" s="18" t="s">
         <v>143</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>144</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="66" customFormat="1" ht="37" customHeight="1">
+    <row r="37" spans="1:9" s="56" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="39" t="s">
         <v>60</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -2017,1298 +2229,1424 @@
         <v>91</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="34"/>
-    </row>
-    <row r="38" spans="1:9" s="66" customFormat="1" ht="34" customHeight="1">
+        <v>145</v>
+      </c>
+      <c r="I37" s="30"/>
+    </row>
+    <row r="38" spans="1:9" s="56" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="39" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>63</v>
       </c>
       <c r="G38" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="1:9" s="66" customFormat="1" ht="33" customHeight="1">
+      <c r="I38" s="64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="56" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="41" t="s">
-        <v>175</v>
+      <c r="D39" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>63</v>
       </c>
       <c r="G39" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="I39" s="34"/>
-    </row>
-    <row r="40" spans="1:9" s="66" customFormat="1" ht="30" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="I39" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="53"/>
-    </row>
-    <row r="41" spans="1:9" s="66" customFormat="1" ht="117" customHeight="1">
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+    </row>
+    <row r="41" spans="1:9" s="56" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>176</v>
+      <c r="C41" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="49" t="s">
+        <v>207</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:9" s="66" customFormat="1" ht="67" customHeight="1">
+    <row r="42" spans="1:9" s="56" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="59" t="s">
-        <v>176</v>
+      <c r="C42" s="69"/>
+      <c r="D42" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>173</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="66" customFormat="1" ht="80" customHeight="1">
+    <row r="43" spans="1:9" s="56" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="56" t="s">
-        <v>159</v>
+      <c r="C43" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="46" t="s">
+        <v>157</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H43" s="41"/>
-      <c r="I43" s="34"/>
-    </row>
-    <row r="44" spans="1:9" s="66" customFormat="1" ht="126" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:9" s="56" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:9" s="66" customFormat="1" ht="119" customHeight="1">
+      <c r="C44" s="69"/>
+      <c r="D44" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G44" s="66" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="30"/>
+    </row>
+    <row r="45" spans="1:9" s="56" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="19"/>
+      <c r="C45" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>200</v>
+      </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="55" t="s">
-        <v>161</v>
+      <c r="F45" s="45" t="s">
+        <v>159</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:9" s="66" customFormat="1" ht="100" customHeight="1">
+    <row r="46" spans="1:9" s="56" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="62" t="s">
+        <v>200</v>
+      </c>
       <c r="E46" s="19"/>
-      <c r="F46" s="55" t="s">
-        <v>162</v>
+      <c r="F46" s="45" t="s">
+        <v>160</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="1:9" s="66" customFormat="1" ht="131" customHeight="1">
+    <row r="47" spans="1:9" s="56" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="1:9" s="66" customFormat="1" ht="25" customHeight="1">
+      <c r="C47" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="30"/>
+    </row>
+    <row r="48" spans="1:9" s="56" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="56" t="s">
-        <v>164</v>
+      <c r="C48" s="69"/>
+      <c r="D48" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>162</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="34"/>
-    </row>
-    <row r="49" spans="1:9" s="66" customFormat="1" ht="78" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="34"/>
-    </row>
-    <row r="50" spans="1:9" s="66" customFormat="1" ht="69" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="17"/>
+    </row>
+    <row r="49" spans="1:9" s="56" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" s="37"/>
+      <c r="I49" s="30"/>
+    </row>
+    <row r="50" spans="1:9" s="56" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="56" t="s">
-        <v>166</v>
+      <c r="C50" s="69"/>
+      <c r="D50" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="60" t="s">
+        <v>180</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" s="66" customFormat="1" ht="108" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="56" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="55" t="s">
-        <v>167</v>
+      <c r="C51" s="69"/>
+      <c r="D51" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F51" s="46" t="s">
+        <v>163</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="22"/>
-    </row>
-    <row r="52" spans="1:9" s="66" customFormat="1" ht="98" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="30"/>
+    </row>
+    <row r="52" spans="1:9" s="56" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
-      <c r="C52" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="56" t="s">
-        <v>168</v>
+      <c r="C52" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="19"/>
+      <c r="F52" s="45" t="s">
+        <v>164</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="34"/>
-    </row>
-    <row r="53" spans="1:9" s="66" customFormat="1" ht="24" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" s="56" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="55" t="s">
+      <c r="C53" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="30"/>
+    </row>
+    <row r="54" spans="1:9" s="56" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="65" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" s="30"/>
+    </row>
+    <row r="55" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="G53" s="19" t="s">
+      <c r="G55" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="H55" s="48"/>
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="H56" s="48"/>
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" s="56" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="19"/>
+      <c r="F57" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="1:9" s="56" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="22"/>
-    </row>
-    <row r="54" spans="1:9" ht="96" customHeight="1">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="22"/>
-    </row>
-    <row r="55" spans="1:9" ht="63" customHeight="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H55" s="58"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" ht="234" customHeight="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="1:9" ht="76" customHeight="1">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="55" t="s">
+      <c r="H58" s="61"/>
+      <c r="I58" s="64" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="48"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="H60" s="48"/>
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G61" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="G57" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" s="58"/>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
-    <row r="1002" ht="15.75" customHeight="1"/>
-    <row r="1003" ht="15.75" customHeight="1"/>
-    <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
-    <row r="1009" ht="15.75" customHeight="1"/>
-    <row r="1010" ht="15.75" customHeight="1"/>
-    <row r="1011" ht="15.75" customHeight="1"/>
-    <row r="1012" ht="15.75" customHeight="1"/>
-    <row r="1013" ht="15.75" customHeight="1"/>
-    <row r="1014" ht="15.75" customHeight="1"/>
-    <row r="1015" ht="15.75" customHeight="1"/>
+      <c r="H61" s="48"/>
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="I25:I28"/>
@@ -3331,15 +3669,18 @@
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{B2C3AA74-066E-EE4F-B4DB-D29CC319C308}"/>
     <hyperlink ref="G41" r:id="rId2" xr:uid="{61023894-C5C2-C343-9F31-D541031AF832}"/>
     <hyperlink ref="G42" r:id="rId3" xr:uid="{5DAAE4DE-C25E-3D4E-ACB4-639F388CEB42}"/>
     <hyperlink ref="G43" r:id="rId4" xr:uid="{C0BA0263-F2C5-B341-A3C1-B103392E559D}"/>
-    <hyperlink ref="G44" r:id="rId5" xr:uid="{D1773584-1F0C-924D-9BF7-C555475519CC}"/>
+    <hyperlink ref="G47" r:id="rId5" xr:uid="{08AB339A-4389-0049-AF0A-0206FA32EC6E}"/>
+    <hyperlink ref="G44" r:id="rId6" xr:uid="{5E968017-85F5-014E-A2D1-93777B2C5CA6}"/>
+    <hyperlink ref="G59" r:id="rId7" xr:uid="{3DE14659-F789-6B40-A824-F9B5019B2358}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -3354,7 +3695,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiengtb/Dropbox/DEVELOPPEMENT/Programmation/01. Développeur Web/Projets OC/Projet 4/damienwill_4_07062021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F0824A-E3A7-0A4C-A908-498C2B0D680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4EC4F-F54A-844F-9EF1-E7C06F349F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83460" yWindow="-13160" windowWidth="41440" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-87540" yWindow="-15120" windowWidth="46220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page accueil" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
   <si>
     <t>Catégorie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>Paramétrer l'attribut " lang" du html avec la version fr.</t>
+  </si>
+  <si>
+    <t>Bien pour les sites statiques mais pas pour les dynamiques</t>
   </si>
 </sst>
 </file>
@@ -1158,6 +1161,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1175,39 +1211,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1427,9 +1430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1696,21 +1699,21 @@
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="1:28" s="56" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="70" t="s">
         <v>107</v>
       </c>
       <c r="H10" s="23" t="s">
@@ -1721,26 +1724,26 @@
       </c>
     </row>
     <row r="11" spans="1:28" s="56" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
+      <c r="A11" s="79"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
+      <c r="A12" s="79"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="23" t="s">
         <v>48</v>
       </c>
@@ -1749,11 +1752,11 @@
     <row r="13" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="23" t="s">
         <v>102</v>
       </c>
@@ -1762,11 +1765,11 @@
     <row r="14" spans="1:28" s="56" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="23" t="s">
         <v>106</v>
       </c>
@@ -1777,11 +1780,11 @@
     <row r="15" spans="1:28" s="56" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="23" t="s">
         <v>111</v>
       </c>
@@ -1790,20 +1793,20 @@
     <row r="16" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="23" t="s">
         <v>49</v>
       </c>
       <c r="I16" s="22"/>
     </row>
     <row r="17" spans="1:9" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="76"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="78" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -1815,7 +1818,7 @@
       <c r="F17" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="84" t="s">
+      <c r="G17" s="77" t="s">
         <v>107</v>
       </c>
       <c r="H17" s="14" t="s">
@@ -1824,9 +1827,9 @@
       <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77"/>
+      <c r="A18" s="79"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="75"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="14" t="s">
         <v>37</v>
       </c>
@@ -1836,7 +1839,7 @@
       <c r="F18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="84"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="14" t="s">
         <v>38</v>
       </c>
@@ -1845,15 +1848,17 @@
     <row r="19" spans="1:9" s="56" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
+      <c r="D19" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="70"/>
       <c r="F19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="76"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="23" t="s">
         <v>119</v>
       </c>
@@ -1862,13 +1867,13 @@
     <row r="20" spans="1:9" s="56" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="76"/>
+      <c r="G20" s="70"/>
       <c r="H20" s="21" t="s">
         <v>171</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="G23" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="69" t="s">
         <v>212</v>
       </c>
       <c r="I23" s="67" t="s">
@@ -1963,66 +1968,66 @@
     <row r="25" spans="1:9" s="58" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="73" t="s">
         <v>80</v>
       </c>
       <c r="F25" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="83" t="s">
+      <c r="G25" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="81" t="s">
+      <c r="H25" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="I25" s="79" t="s">
+      <c r="I25" s="72" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="58" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="80"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" s="58" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
       <c r="F27" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="80"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" s="58" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="80"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" s="58" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
@@ -2299,7 +2304,7 @@
     <row r="41" spans="1:9" s="56" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="69" t="s">
+      <c r="C41" s="80" t="s">
         <v>149</v>
       </c>
       <c r="D41" s="59" t="s">
@@ -2320,7 +2325,7 @@
     <row r="42" spans="1:9" s="56" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="69"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="62" t="s">
         <v>201</v>
       </c>
@@ -2339,7 +2344,7 @@
     <row r="43" spans="1:9" s="56" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="80" t="s">
         <v>150</v>
       </c>
       <c r="D43" s="65" t="s">
@@ -2360,7 +2365,7 @@
     <row r="44" spans="1:9" s="56" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="69"/>
+      <c r="C44" s="80"/>
       <c r="D44" s="60" t="s">
         <v>203</v>
       </c>
@@ -2379,7 +2384,7 @@
     <row r="45" spans="1:9" s="56" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="70" t="s">
+      <c r="C45" s="81" t="s">
         <v>151</v>
       </c>
       <c r="D45" s="62" t="s">
@@ -2398,7 +2403,7 @@
     <row r="46" spans="1:9" s="56" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
-      <c r="C46" s="71"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="62" t="s">
         <v>200</v>
       </c>
@@ -2415,7 +2420,7 @@
     <row r="47" spans="1:9" s="56" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="80" t="s">
         <v>152</v>
       </c>
       <c r="D47" s="60" t="s">
@@ -2434,7 +2439,7 @@
     <row r="48" spans="1:9" s="56" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="69"/>
+      <c r="C48" s="80"/>
       <c r="D48" s="65" t="s">
         <v>190</v>
       </c>
@@ -2453,7 +2458,7 @@
     <row r="49" spans="1:9" s="56" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63"/>
       <c r="B49" s="63"/>
-      <c r="C49" s="69"/>
+      <c r="C49" s="80"/>
       <c r="D49" s="65" t="s">
         <v>184</v>
       </c>
@@ -2472,7 +2477,7 @@
     <row r="50" spans="1:9" s="56" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="69"/>
+      <c r="C50" s="80"/>
       <c r="D50" s="65" t="s">
         <v>199</v>
       </c>
@@ -2491,7 +2496,7 @@
     <row r="51" spans="1:9" s="56" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="69"/>
+      <c r="C51" s="80"/>
       <c r="D51" s="60" t="s">
         <v>193</v>
       </c>
@@ -2548,7 +2553,7 @@
     <row r="54" spans="1:9" s="56" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63"/>
       <c r="B54" s="63"/>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="83" t="s">
         <v>208</v>
       </c>
       <c r="D54" s="65" t="s">
@@ -2565,7 +2570,7 @@
     <row r="55" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
-      <c r="C55" s="73"/>
+      <c r="C55" s="84"/>
       <c r="D55" s="48"/>
       <c r="E55" s="48"/>
       <c r="F55" s="45" t="s">
@@ -2580,7 +2585,7 @@
     <row r="56" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
-      <c r="C56" s="74"/>
+      <c r="C56" s="85"/>
       <c r="D56" s="48"/>
       <c r="E56" s="48"/>
       <c r="F56" s="45" t="s">
@@ -2595,7 +2600,7 @@
     <row r="57" spans="1:9" s="56" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
-      <c r="C57" s="69" t="s">
+      <c r="C57" s="80" t="s">
         <v>155</v>
       </c>
       <c r="D57" s="62" t="s">
@@ -2614,7 +2619,7 @@
     <row r="58" spans="1:9" s="56" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="61"/>
       <c r="B58" s="61"/>
-      <c r="C58" s="69"/>
+      <c r="C58" s="80"/>
       <c r="D58" s="59" t="s">
         <v>177</v>
       </c>
@@ -2635,7 +2640,7 @@
     <row r="59" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
-      <c r="C59" s="69"/>
+      <c r="C59" s="80"/>
       <c r="D59" s="68" t="s">
         <v>188</v>
       </c>
@@ -2654,7 +2659,7 @@
     <row r="60" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
-      <c r="C60" s="69"/>
+      <c r="C60" s="80"/>
       <c r="D60" s="68" t="s">
         <v>196</v>
       </c>
@@ -2673,7 +2678,7 @@
     <row r="61" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
-      <c r="C61" s="69"/>
+      <c r="C61" s="80"/>
       <c r="D61" s="68" t="s">
         <v>205</v>
       </c>
@@ -3647,6 +3652,18 @@
     <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="D10:D16"/>
     <mergeCell ref="E10:E16"/>
     <mergeCell ref="I25:I28"/>
@@ -3660,18 +3677,6 @@
     <mergeCell ref="G10:G16"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C54:C56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" xr:uid="{B2C3AA74-066E-EE4F-B4DB-D29CC319C308}"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damiengtb/Dropbox/DEVELOPPEMENT/Programmation/01. Développeur Web/Projets OC/Projet 4/damienwill_4_07062021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F4EC4F-F54A-844F-9EF1-E7C06F349F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB18CE6-FECF-4F46-9F2A-913E18840C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-87540" yWindow="-15120" windowWidth="46220" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29800" yWindow="-3100" windowWidth="37400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page accueil" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="216">
   <si>
     <t>Catégorie</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Volume des contenus des pages</t>
   </si>
   <si>
-    <t>Il faut un minimum de 400 mots pour être correctement référencés par Google (certains disent même 1000 mots maintenant !)</t>
-  </si>
-  <si>
     <t>cours SEO Openclassrooms</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">Les url des pages d'accueil et page 2 ne sont pas intelligibles. </t>
-  </si>
-  <si>
-    <t>La vitesse de chargement est acceptable mais peut encore être optimisée</t>
   </si>
   <si>
     <t>Convertir les images dans des formats next-gen comme JPEG 2000, JPEG XR, and WebP</t>
@@ -152,9 +146,6 @@
     <t>Héberger les fonts</t>
   </si>
   <si>
-    <t>L'hebergment des fonts rend leur disponibilité donc le chargement de la page plus rapides.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Les images n'ont pas de paramétrages pour la responsivité, une mauvaise responsivité affecte la crawlabilité du site. </t>
   </si>
   <si>
@@ -180,9 +171,6 @@
   </si>
   <si>
     <t>Attribuer une longue durée de vie du cache peut accélérer les visites répétées sur votre page</t>
-  </si>
-  <si>
-    <t>Hierarchisation des pages</t>
   </si>
   <si>
     <t>La navigation n'informe pas sur les différents contenus par page du site</t>
@@ -237,9 +225,6 @@
     <t>Taille maximum : Google affiche entre 132 et 160 caractères. Il est conseillé d'en écrire un peu plus, pour que Google ait le choix de ce qu'il souhaite afficher.</t>
   </si>
   <si>
-    <t xml:space="preserve">Aidons Google à comprendre le contexte de notre box bio en ajoutant dans la description des mots proches du champs lexical de l'alimentation comme "cuisinez" et "producteurs". </t>
-  </si>
-  <si>
     <t xml:space="preserve">Le mot clé est présent au début de la balise. Nous y rappelons aussi notre nom de marque, nous expliquons au visiteur pourquoi notre box est "la meilleure" et nous présentons ses avantages. </t>
   </si>
   <si>
@@ -290,9 +275,6 @@
     <t>Certains titres ne semblent pas se suivre de manière logique (imbrication logique = h1 puis h2 puis h3 etc.).</t>
   </si>
   <si>
-    <t xml:space="preserve">Une mauvaise structuration des titres va empecher les bots de comprendre la structure de la page et les sujets dont elle traite en priorité. </t>
-  </si>
-  <si>
     <t>Langue</t>
   </si>
   <si>
@@ -318,9 +300,6 @@
   </si>
   <si>
     <t>Cette page comporte 9 image(s) dont le nom ne semble pas optimisé pour le référencement</t>
-  </si>
-  <si>
-    <t>Pour améliorer le référencement de vos images, vous pouvez leur donner un nom explicite dont les mots-clés doivent être séparés par des tirets</t>
   </si>
   <si>
     <t xml:space="preserve">Les mots clés ciblent n'apparaissent pas dans les noms des images et ça ne facilite pas le référencement de ces images. </t>
@@ -330,9 +309,6 @@
 Essayez d'être plus précis dans la rédaction de vos textes alternatifs afin que les moteurs de recherche puissent individualiser vos images</t>
   </si>
   <si>
-    <t>Présents mais pour 3 images il y a du contenu dupliqué</t>
-  </si>
-  <si>
     <t>Les moteurs de recherche ne pourront pas individualiser les images et les référencer correctement</t>
   </si>
   <si>
@@ -340,33 +316,6 @@
   </si>
   <si>
     <t>Donner une width et une height explicites aux images</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-Des images trops lourdes vont ralentir le temps de téléchargement de la page.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
   </si>
   <si>
     <t>Accessibilité</t>
@@ -404,9 +353,6 @@
 </t>
   </si>
   <si>
-    <t>Allèger l'image de favicon</t>
-  </si>
-  <si>
     <t>Créer une sitemap du site</t>
   </si>
   <si>
@@ -417,9 +363,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Il est interprété par les robots en charge du référencement de votre site. Il délivre des instructions pour indiquer les pages à explorer par les robots.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peut être toutes les pages n'auront pas vocation à être indexées. Créer un fichier robots.txt à la racine permet de gérer l'indexation voulue des pages du site </t>
   </si>
   <si>
     <t>Dareboost</t>
@@ -467,9 +410,6 @@
     <t>Remettre un h2 sur page d'accueil</t>
   </si>
   <si>
-    <t>Remplacer les balises div par la bonne nomencalture )main, section, aside, …)</t>
-  </si>
-  <si>
     <t>Renommer les images</t>
   </si>
   <si>
@@ -488,9 +428,6 @@
     <t>La page 2 n'a pas de paragraphe de contenu</t>
   </si>
   <si>
-    <t>SI la page fait moins de 400 mots et si les mots clés ne sont pas représentés, la crwalabilité et le référencement ne seront pas de bonne qualité.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Créer un petit paragraphe expliquant le but de la page. </t>
   </si>
   <si>
@@ -506,9 +443,6 @@
     <t>Si possible, 1 ou 2 liens externes de qualité</t>
   </si>
   <si>
-    <t>Vérifier les lines externes du footer et supprimer ceux qui n'apportent pas de valeur ajoutée</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mettre des mots clés ou titres de pages dans les liens. </t>
   </si>
   <si>
@@ -518,25 +452,13 @@
     <t>W3C</t>
   </si>
   <si>
-    <t>Corriger les erreurs majeurs</t>
-  </si>
-  <si>
     <t>La couleur</t>
   </si>
   <si>
     <t>La visibilité</t>
   </si>
   <si>
-    <t>Le focus</t>
-  </si>
-  <si>
     <t>Les équivalents textuels</t>
-  </si>
-  <si>
-    <t>La gestion des états</t>
-  </si>
-  <si>
-    <t>L'orientation</t>
   </si>
   <si>
     <t>Directives générales</t>
@@ -553,14 +475,6 @@
     Sauf si cela est absolument inévitable, l'attribut aria-hidden NE DOIT PAS être utilisé.</t>
   </si>
   <si>
-    <t>Tous les éléments activables DOIVENT être focusables :
-    Les contrôles standard tels que les liens, les boutons et les champs de formulaire sont accessibles par défaut.
-    Les contrôles non standard DOIVENT avoir un rôle ARIA (en-US) approprié qui leur est attribué, comme button, link ou checkbox.</t>
-  </si>
-  <si>
-    <t>Le focus DOIT être traité dans un ordre logique et de manière cohérente.</t>
-  </si>
-  <si>
     <t>Un équivalent textuel DOIT être fourni pour chaque élément non textuel non strictement présenté dans l'application.
     Utilisez alt et title lorsque cela est approprié (voir l'article de Steve Faulkner sur l'Utilisation de l'attribut HTML title).
     Si les attributs ci-dessus ne sont pas applicables, utilisez les États et propriétés ARIA appropriés tels que aria-label, aria-labelledby, ou aria-describedby.</t>
@@ -570,16 +484,6 @@
   </si>
   <si>
     <t>Tous les contrôles de formulaire DOIVENT avoir des étiquettes (éléments &lt;label&gt;) pour le bénéfice des utilisateurs de lecteurs d'écran.</t>
-  </si>
-  <si>
-    <t>Les contrôles standard tels que les boutons radio et les cases à cocher sont gérés par le système d'exploitation. Cependant, pour d'autres contrôles personnalisés, les changements d'état DOIVENT être fournis via les états ARIA tels que aria-checked, aria-disabled, aria-selected, aria-expanded et aria-pressed.</t>
-  </si>
-  <si>
-    <t>Le contenu NE DOIT PAS être limité à une seule orientation, comme le portrait ou le paysage, sauf si cela est essentiel. WCAG 2.1 : Orientation
-    Des exemples de cas où une orientation est essentielle sont une application pour un piano ou un chèque de banque.</t>
-  </si>
-  <si>
-    <t>Un titre d'application DOIT être fourni.</t>
   </si>
   <si>
     <t>Les titres NE DOIVENT PAS rompre la structure hiérarchique
@@ -589,6 +493,232 @@
     &lt;h3&gt;Titre de bas niveau&lt;/h3&gt;</t>
   </si>
   <si>
+    <t>Paramétrer la durée du cache</t>
+  </si>
+  <si>
+    <t>Des erreurs relevées dans le test W3C</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/</t>
+  </si>
+  <si>
+    <t>Le contraste des couleurs DOIT être conforme aux exigences du niveau AA du WCAG 2.1 :
+    Un contraste dont le ratio est de 4.5:1 pour les textes normaux (dont la font est inférieure à 18 points ou 14 points en gras) ;
+    Un contraste dont le ratio est de 3:1 pour les grands textes (18 points minimum ou 14 points en gras).</t>
+  </si>
+  <si>
+    <t>L'attribut "lang" dans le Html doit être renseigné correctement</t>
+  </si>
+  <si>
+    <t>Lighthouse</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+Lighthouse</t>
+  </si>
+  <si>
+    <t>Tous les composants de l'interface utilisateur ayant un texte visible (ou une image de texte) comme étiquette (label) DOIVENT avoir le même texte disponible dans le nom programmatique du composant. WCAG 2.1 : Étiquette dans le nom.</t>
+  </si>
+  <si>
+    <t>Un taux de contraste insuffisant va rendre difficile la lecture pour les personnes mal voyantes.</t>
+  </si>
+  <si>
+    <t>Les éléments interactifs ou cliquables doivent avoir un contenu textuel visible par les lecteurs d'écran</t>
+  </si>
+  <si>
+    <t>Des liens en page 2 n'ont pas de contenu textuel visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le logiciel de lecteur d'écran ne pourra pas restituer à l'utilisateur le contenu et l'intérêt des liens incriminés. </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+Axe Devtools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il existe des images texte en page accueil sans description adaptée. </t>
+  </si>
+  <si>
+    <t>Des contenus textuels sont lus dans un accent anglais, ce qui rend la compréhension difficile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le remplissage du formulaire par l'utilisateur utilisant une technologie d'assistance risque d'être géné par une mauvaise compréhension des éléments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La structure du code html doit utiliser au maximum les balises sémantiques et être cohérente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas de balise main pour les 2 pages. 
+Un bouton "Toggle navigation" semble errer sans but en haut de la page 2. </t>
+  </si>
+  <si>
+    <t>La navigation en page 2 est à moitié hors écran.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela ne favorise pas la visibilité de la page et la navigation pour les personnes mal voyantes. </t>
+  </si>
+  <si>
+    <t>Des éléments textuels ne sont pas lus par le lecteur d'écran (voice over). Web design, Stratégie, Illustrations + paragraphes associés. 
+Titres et paragraphes des images en page d'accueil. 
+Paragraphes du bouton envoyer en page 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cela risque de rendre difficile la navigation des personnes mal voyantes. </t>
+  </si>
+  <si>
+    <t>Les éléments  dans le footer sont invisibles en page 2</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+Ligthouse
+Wave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Axe devtools
+Wave</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/
+WCAG - Contrast checker
+Lighthouse
+Wave</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Paramétrer l'attribut " lang" du html avec la version fr.</t>
+  </si>
+  <si>
+    <t>Changement du background de couleur #F3976C en couleur #f8c3ab</t>
+  </si>
+  <si>
+    <t>Les icônes des réseaux sociaux dans le footer n'ont pas de contenu pouvant être lu par les lecteurs d'écran</t>
+  </si>
+  <si>
+    <t>Renseigner un contenu ou tout du moins un titre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il n'y a pas de mise en cache paramétrée pour ce site. </t>
+  </si>
+  <si>
+    <t>Openclassrooms
+Dareboost
+Mentor</t>
+  </si>
+  <si>
+    <t>cours SEO Openclassrooms
+mentor</t>
+  </si>
+  <si>
+    <t>Il faut un minimum de 400 mots pour être correctement référencé par Google (certains disent même 1000 mots maintenant !)</t>
+  </si>
+  <si>
+    <t>Hiérarchisation des pages</t>
+  </si>
+  <si>
+    <t>La vitesse de chargement est acceptable, mais peut encore être optimisée</t>
+  </si>
+  <si>
+    <t>Présents, mais pour 3 images il y a du contenu dupliqué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Des images trop lourdes vont ralentir le temps de téléchargement de la page.
+</t>
+  </si>
+  <si>
+    <t>Alléger l'image de favicon</t>
+  </si>
+  <si>
+    <t>L'hébergement des fonts rend leur disponibilité donc le chargement de la page plus rapide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour un site  statique, la mise en cache de certains éléments par le navigateur peut apporter un gain de vitesse de chargement de la page important. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peut-être toutes les pages n'auront pas vocation à être indexées. Créer un fichier robots.txt à la racine permet de gérer l'indexation voulue des pages du site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aidons Google à comprendre le contexte de notre box bio en ajoutant dans la description des mots proches du champ lexical de l'alimentation comme "cuisinez" et "producteurs". </t>
+  </si>
+  <si>
+    <t>Remplacer les balises div par la bonne nomenclature )main, section, aside, …)</t>
+  </si>
+  <si>
+    <t>Pour améliorer le référencement de vos images, vous pouvez leur donner un nom explicite dont les mots clés doivent être séparés par des tirets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une mauvaise structuration des titres va empêcher les bots de comprendre la structure de la page et les sujets dont elle traite en priorité. </t>
+  </si>
+  <si>
+    <t>SI la page fait moins de 400 mots et si les mots clés ne sont pas représentés, la crawlabilité et le référencement ne seront pas de bonne qualité.</t>
+  </si>
+  <si>
+    <t>Vérifier les liens externes du footer et supprimer ceux qui n'apportent pas de valeur ajoutée</t>
+  </si>
+  <si>
+    <t>Corriger les erreurs majeures</t>
+  </si>
+  <si>
+    <t>Des parties de pages comportent un ratio de contraste texte/fond insuffisant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les liens du footer en page d'accueil n'ont aucune indication de couleur ou autre (à part le pointer de la souris, mais les liens sont trop rapprochés entre eux pour que ce pointer soit efficace). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le contenu ne pourra pas être lu par un lecteur d'écran ou une technologie d'assistance. L'utilisateur va passer à côté des informations du site. </t>
+  </si>
+  <si>
+    <t>Le formulaire page 2 n'a pas de labels associés. De plus, lors de la lecture d'écran par Voice over, les indications pour chaque input sont identiques.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page d'accueil, la hiérarchie des titres n'est pas correcte. </t>
+  </si>
+  <si>
+    <t>Cela ne facilite pas la compréhension de la page par le lecteur d'écran et les technologies d'assistance.</t>
+  </si>
+  <si>
+    <t>valeur "defaut" définie pour l'attribut "lang" pour les 2 pages</t>
+  </si>
+  <si>
+    <t>Le logiciel de lecteur d'écran ne pourra pas restituer à l'utilisateur le contenu et l'intérêt des textes de la page.</t>
+  </si>
+  <si>
+    <t>Mettre une couleur différente sur le hover du lien, en respectant les normes de contrate.</t>
+  </si>
+  <si>
+    <t>Repositionner+G52 la navigation dans la page</t>
+  </si>
+  <si>
+    <t>Tous les éléments activables DOIVENT être focusables :
+    Les contrôles standard tels que les liens, les boutons et les champs de formulaire sont accessibles par défaut.
+    Les contrôles non standard DOIVENT avoir un rôle ARIA (en-US) approprié qui leur est attribué, comme button, link ou checkbox.</t>
+  </si>
+  <si>
+    <t>Le focus DOIT être traité dans un ordre logique et de manière cohérente.</t>
+  </si>
+  <si>
+    <t>Le focus</t>
+  </si>
+  <si>
+    <t>La gestion des états</t>
+  </si>
+  <si>
+    <t>Les contrôles standard tels que les boutons radio et les cases à cocher sont gérés par le système d'exploitation. Cependant, pour d'autres contrôles personnalisés, les changements d'état DOIVENT être fournis via les états ARIA tels que aria-checked, aria-disabled, aria-selected, aria-expanded et aria-pressed.</t>
+  </si>
+  <si>
+    <t>Le contenu NE DOIT PAS être limité à une seule orientation, comme le portrait ou le paysage, sauf si cela est essentiel. WCAG 2.1 : Orientation
+    Des exemples de cas où une orientation est essentielle sont une application pour un piano ou un chèque de banque.</t>
+  </si>
+  <si>
+    <t>L'orientation</t>
+  </si>
+  <si>
+    <t>Un titre d'application DOIT être fourni.</t>
+  </si>
+  <si>
     <t>L'ARIA Landmark Roles DOIT être utilisé pour décrire une structure d'application ou de document, telle que banner, complementary, contentinfo, main, navigation, search.</t>
   </si>
   <si>
@@ -600,149 +730,6 @@
   </si>
   <si>
     <t>Les cibles tactiles DOIVENT être suffisamment grandes pour que l'utilisateur puisse interagir avec elles (voir BBC Mobile Accessibility Guidelines pour des directives utiles sur la taille des cibles tactiles).</t>
-  </si>
-  <si>
-    <t>Paramétrer la durée du cache</t>
-  </si>
-  <si>
-    <t>Des erreurs relevées dans le test W3C</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/</t>
-  </si>
-  <si>
-    <t>Le contraste des couleurs DOIT être conforme aux exigences du niveau AA du WCAG 2.1 :
-    Un contraste dont le ratio est de 4.5:1 pour les textes normaux (dont la font est inférieure à 18 points ou 14 points en gras) ;
-    Un contraste dont le ratio est de 3:1 pour les grands textes (18 points minimum ou 14 points en gras).</t>
-  </si>
-  <si>
-    <t>L'attribut "lang" dans le Html doit être renseigné correctement</t>
-  </si>
-  <si>
-    <t>Lighthouse</t>
-  </si>
-  <si>
-    <t>Pas de valeur définie pour les 2 pages</t>
-  </si>
-  <si>
-    <t>Les icônes des réseaux sociaux dans le footer n'ont pas de texte de lien unique et discernable</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/
-Lighthouse</t>
-  </si>
-  <si>
-    <t>Tous les composants de l'interface utilisateur ayant un texte visible (ou une image de texte) comme étiquette (label) DOIVENT avoir le même texte disponible dans le nom programmatique du composant. WCAG 2.1 : Étiquette dans le nom.</t>
-  </si>
-  <si>
-    <t>Des parties de pages comporte un ratio de contraste texte/fond insuffisant</t>
-  </si>
-  <si>
-    <t>Un taux de contraste insuffisant va rendre difficile la lecture pour les personnes mal voyantes.</t>
-  </si>
-  <si>
-    <t>Les éléments interactifs ou cliquables doivent avoir un contenu textuel visible par les lecteurs d'écran</t>
-  </si>
-  <si>
-    <t>Des liens en page 2 n'ont pas de contenu textuel visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le logiciel de lecteur d'écran ne pourra pas restituer à l'utilisateur le contenu et l'intérêt des liens incriminés. </t>
-  </si>
-  <si>
-    <t>Axe Devtools</t>
-  </si>
-  <si>
-    <t>Cela ne facilite pas la compréhension de la page par le lecteur d'ècran et les technologies d'assistance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page d'accueil, la hierarchie des titres n'est pas correcte. </t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/
-Axe Devtools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il existe des images texte en page accueil sans description adaptée. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le contenu ne pourra pas etre lu par un lecteur d'écran ou une technologie d'assistance. L'utilisateur va passer à coté des informations du site. </t>
-  </si>
-  <si>
-    <t>Des contenus textuels sont lus dans un accent anglais, ce qui rend la compréhension difficile</t>
-  </si>
-  <si>
-    <t>Le formulaire page 2 n'a pas de labels associés. De plus, lors de la lecture d'écran par Voice over, les indications pour chaque inoput sont identiques.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le remplissage du formulaire par l'utilisateur utilisant une technologie d'assistance risque d'être géné par une mauvaise compréhension des éléments. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La structure du code html doit utiliser au maximum les balises sémantiques et être cohérente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pas de balise main pour les 2 pages. 
-Un bouton "Toggle navigation" semble errer sans but en haut de la page 2. </t>
-  </si>
-  <si>
-    <t>La navigation en page 2 est à moitié hors écran.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cela ne favorise pas la visibilité de la page et la navigation pour les personnes mal voyantes. </t>
-  </si>
-  <si>
-    <t>Des éléments textuels ne sont pas lus par le lecteur d'écran (voice over). Web design, Stratégie, Illustrations + paragraphes associés. 
-Titres et paragraphes des images en page d'accueil. 
-Paragraphes du bouton envoyer en page 2.</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les liens du footer en page d'accueil n'ont aucune indication de couleur ou autre (à part le pointer de la souris mais les liens sont trop rapporchés entre eux pour que ce pointer soit efficace). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cela risque de rendre difficile la navigation des personnes mal voyantes. </t>
-  </si>
-  <si>
-    <t>Les éléments  dans le footer sont invisibles en page 2</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/
-Ligthouse
-Wave</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Axe devtools
-Wave</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/
-WCAG - Contrast checker
-Lighthouse
-Wave</t>
-  </si>
-  <si>
-    <t>Version Mobile</t>
-  </si>
-  <si>
-    <t>Lighthouse (version mobile)</t>
-  </si>
-  <si>
-    <t>Rien de plus que la version desktop</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Paramétrer l'attribut " lang" du html avec la version fr.</t>
-  </si>
-  <si>
-    <t>Bien pour les sites statiques mais pas pour les dynamiques</t>
   </si>
 </sst>
 </file>
@@ -895,7 +882,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -951,23 +938,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1106,9 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1164,12 +1137,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1202,15 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,11 +1413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1019"/>
+  <dimension ref="A1:AB1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19:D20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1445,9 +1430,9 @@
     <col min="6" max="6" width="48.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="57" customWidth="1"/>
-    <col min="10" max="28" width="10.5703125" style="51" customWidth="1"/>
-    <col min="29" max="16384" width="11.28515625" style="51"/>
+    <col min="9" max="9" width="17.42578125" style="56" customWidth="1"/>
+    <col min="10" max="28" width="10.5703125" style="50" customWidth="1"/>
+    <col min="29" max="16384" width="11.28515625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -1478,27 +1463,27 @@
       <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-    </row>
-    <row r="2" spans="1:28" s="53" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+    </row>
+    <row r="2" spans="1:28" s="52" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1510,30 +1495,30 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-    </row>
-    <row r="3" spans="1:28" s="55" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+    </row>
+    <row r="3" spans="1:28" s="54" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1542,27 +1527,27 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-    </row>
-    <row r="4" spans="1:28" s="56" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+    </row>
+    <row r="4" spans="1:28" s="55" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13" t="s">
@@ -1581,331 +1566,337 @@
         <v>13</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:28" s="56" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="55" customFormat="1" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:28" s="56" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="55" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" s="56" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" s="55" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="H7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:28" s="56" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" s="55" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="20" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" s="56" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" s="55" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="26"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:28" s="56" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+    <row r="10" spans="1:28" s="55" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="76"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>107</v>
+      <c r="C10" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>98</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" s="56" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" s="55" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="85"/>
       <c r="B11" s="18"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
+    <row r="12" spans="1:28" s="55" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="85"/>
       <c r="B12" s="18"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
       <c r="H12" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" s="55" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
       <c r="H13" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:28" s="56" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" s="55" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" s="56" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" s="55" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="23" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:28" s="56" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" s="55" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
       <c r="H16" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="70"/>
+        <v>46</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="55" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="76"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" s="55" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="85"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" spans="1:9" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="30"/>
     </row>
-    <row r="19" spans="1:9" s="56" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="55" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="70"/>
+      <c r="C19" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>186</v>
+      </c>
       <c r="F19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="70"/>
+        <v>96</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>177</v>
+      </c>
       <c r="H19" s="23" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I19" s="22"/>
     </row>
-    <row r="20" spans="1:9" s="56" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="55" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
       <c r="F20" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="70"/>
+        <v>47</v>
+      </c>
+      <c r="G20" s="76"/>
       <c r="H20" s="21" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:9" s="56" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="55" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" spans="1:9" s="56" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="55" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="31"/>
@@ -1915,382 +1906,380 @@
       <c r="H22" s="32"/>
       <c r="I22" s="33"/>
     </row>
-    <row r="23" spans="1:9" s="58" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="57" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="35"/>
       <c r="C23" s="20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F23" s="34" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="58" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H23" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="57" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="35"/>
       <c r="C24" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="58" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="57" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="73" t="s">
-        <v>80</v>
+      <c r="C25" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="79" t="s">
+        <v>75</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="58" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="G25" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" s="78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="57" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="35"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
       <c r="F26" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9" s="58" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G26" s="82"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="79"/>
+    </row>
+    <row r="27" spans="1:9" s="57" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
       <c r="B27" s="35"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="73"/>
-    </row>
-    <row r="28" spans="1:9" s="58" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G27" s="82"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="79"/>
+    </row>
+    <row r="28" spans="1:9" s="57" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="34"/>
       <c r="B28" s="35"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="1:9" s="58" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="G28" s="82"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="79"/>
+    </row>
+    <row r="29" spans="1:9" s="57" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
       <c r="B29" s="35"/>
       <c r="C29" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="I29" s="30"/>
     </row>
-    <row r="30" spans="1:9" s="58" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="57" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
       <c r="B30" s="35"/>
       <c r="C30" s="20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" s="58" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="57" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="35"/>
       <c r="C31" s="20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="56" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" s="55" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="56" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="55" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I33" s="40"/>
     </row>
-    <row r="34" spans="1:9" s="56" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="55" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I34" s="41"/>
     </row>
-    <row r="35" spans="1:9" s="56" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="55" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" s="56" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="55" customFormat="1" ht="71" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="39" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="56" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="55" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="39" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="I37" s="30"/>
     </row>
-    <row r="38" spans="1:9" s="56" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="55" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="39" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I38" s="64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="56" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="I38" s="63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="55" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
       <c r="I39" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="56" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="55" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -2301,397 +2290,365 @@
       <c r="H40" s="43"/>
       <c r="I40" s="44"/>
     </row>
-    <row r="41" spans="1:9" s="56" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="55" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>182</v>
+      <c r="C41" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>153</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="G41" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="22"/>
-    </row>
-    <row r="42" spans="1:9" s="56" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="G41" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="55" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>202</v>
+      <c r="C42" s="86"/>
+      <c r="D42" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="61" t="s">
+        <v>166</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="H42" s="19"/>
+        <v>138</v>
+      </c>
+      <c r="G42" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>203</v>
+      </c>
       <c r="I42" s="22"/>
     </row>
-    <row r="43" spans="1:9" s="56" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="55" customFormat="1" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="D43" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>198</v>
+      <c r="C43" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>164</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H43" s="37"/>
       <c r="I43" s="30"/>
     </row>
-    <row r="44" spans="1:9" s="56" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="55" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>202</v>
+      <c r="C44" s="86"/>
+      <c r="D44" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>166</v>
       </c>
       <c r="F44" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="66" t="s">
-        <v>204</v>
+        <v>140</v>
+      </c>
+      <c r="G44" s="65" t="s">
+        <v>168</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="30"/>
     </row>
-    <row r="45" spans="1:9" s="56" customFormat="1" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="D45" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="22"/>
-    </row>
-    <row r="46" spans="1:9" s="56" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="E46" s="19"/>
-      <c r="F46" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="22"/>
-    </row>
-    <row r="47" spans="1:9" s="56" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="55" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="73"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="65"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="30"/>
+    </row>
+    <row r="46" spans="1:9" s="55" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="73"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G46" s="65"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="30"/>
+    </row>
+    <row r="47" spans="1:9" s="55" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="37"/>
+      <c r="C47" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>197</v>
+      </c>
       <c r="F47" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="G47" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="H47" s="37"/>
+        <v>141</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>175</v>
+      </c>
       <c r="I47" s="30"/>
     </row>
-    <row r="48" spans="1:9" s="56" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="55" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>191</v>
+      <c r="C48" s="86"/>
+      <c r="D48" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>197</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" s="56" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="F49" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="G49" s="66" t="s">
-        <v>206</v>
+    <row r="49" spans="1:9" s="55" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" s="65" t="s">
+        <v>169</v>
       </c>
       <c r="H49" s="37"/>
       <c r="I49" s="30"/>
     </row>
-    <row r="50" spans="1:9" s="56" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="55" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="60" t="s">
-        <v>180</v>
+      <c r="C50" s="86"/>
+      <c r="D50" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="59" t="s">
+        <v>152</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H50" s="37"/>
       <c r="I50" s="17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="56" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="55" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="60" t="s">
-        <v>193</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>194</v>
+      <c r="C51" s="86"/>
+      <c r="D51" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>160</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H51" s="37"/>
       <c r="I51" s="30"/>
     </row>
-    <row r="52" spans="1:9" s="56" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="22"/>
-    </row>
-    <row r="53" spans="1:9" s="56" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="E53" s="37"/>
+    <row r="52" spans="1:9" s="55" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="73"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="G52" s="73"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="30"/>
+    </row>
+    <row r="53" spans="1:9" s="55" customFormat="1" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="71" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="75"/>
+      <c r="E53" s="75"/>
       <c r="F53" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>173</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G53" s="73"/>
       <c r="H53" s="37"/>
       <c r="I53" s="30"/>
     </row>
-    <row r="54" spans="1:9" s="56" customFormat="1" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="30"/>
-    </row>
-    <row r="55" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="G55" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="48"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" ht="76" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
+    <row r="54" spans="1:9" s="55" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="55" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="72"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="74"/>
+    </row>
+    <row r="56" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="67" t="s">
+        <v>200</v>
+      </c>
       <c r="F56" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G56" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="H56" s="48"/>
+        <v>144</v>
+      </c>
+      <c r="G56" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="47"/>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" s="56" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="62" t="s">
+    <row r="57" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="G57" s="48"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="1:9" ht="230" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G58" s="48"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="48"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="1:9" ht="59" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" s="56" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="F58" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" s="61"/>
-      <c r="I58" s="64" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="H59" s="48"/>
-      <c r="I59" s="22"/>
-    </row>
-    <row r="60" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="68" t="s">
-        <v>196</v>
-      </c>
-      <c r="E60" s="68" t="s">
-        <v>187</v>
-      </c>
-      <c r="F60" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="62" t="s">
-        <v>186</v>
-      </c>
-      <c r="H60" s="48"/>
+      <c r="F60" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H60" s="47"/>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H61" s="48"/>
-      <c r="I61" s="22"/>
-    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3649,15 +3606,13 @@
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1017" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1018" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1019" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C54:C60"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="C54:C56"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A17:A18"/>
@@ -3685,7 +3640,7 @@
     <hyperlink ref="G43" r:id="rId4" xr:uid="{C0BA0263-F2C5-B341-A3C1-B103392E559D}"/>
     <hyperlink ref="G47" r:id="rId5" xr:uid="{08AB339A-4389-0049-AF0A-0206FA32EC6E}"/>
     <hyperlink ref="G44" r:id="rId6" xr:uid="{5E968017-85F5-014E-A2D1-93777B2C5CA6}"/>
-    <hyperlink ref="G59" r:id="rId7" xr:uid="{3DE14659-F789-6B40-A824-F9B5019B2358}"/>
+    <hyperlink ref="G56" r:id="rId7" xr:uid="{3DE14659-F789-6B40-A824-F9B5019B2358}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
